--- a/BARU/2022/12 DES/keluar.xlsx
+++ b/BARU/2022/12 DES/keluar.xlsx
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId11"/>
+    <pivotCache cacheId="18" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1356,6 +1356,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1397,21 +1412,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -33350,9 +33350,7 @@
           </cell>
         </row>
         <row r="199">
-          <cell r="B199">
-            <v>0</v>
-          </cell>
+          <cell r="B199"/>
         </row>
         <row r="200">
           <cell r="B200" t="str">
@@ -34150,9 +34148,7 @@
           </cell>
         </row>
         <row r="359">
-          <cell r="B359">
-            <v>0</v>
-          </cell>
+          <cell r="B359"/>
         </row>
         <row r="360">
           <cell r="B360" t="str">
@@ -35145,9 +35141,7 @@
           </cell>
         </row>
         <row r="558">
-          <cell r="B558">
-            <v>0</v>
-          </cell>
+          <cell r="B558"/>
         </row>
         <row r="559">
           <cell r="B559" t="str">
@@ -35905,9 +35899,7 @@
           </cell>
         </row>
         <row r="710">
-          <cell r="B710">
-            <v>0</v>
-          </cell>
+          <cell r="B710"/>
         </row>
         <row r="711">
           <cell r="B711" t="str">
@@ -36830,9 +36822,7 @@
           </cell>
         </row>
         <row r="895">
-          <cell r="B895">
-            <v>0</v>
-          </cell>
+          <cell r="B895"/>
         </row>
         <row r="896">
           <cell r="B896" t="str">
@@ -37965,9 +37955,7 @@
           </cell>
         </row>
         <row r="1122">
-          <cell r="B1122">
-            <v>0</v>
-          </cell>
+          <cell r="B1122"/>
         </row>
         <row r="1123">
           <cell r="B1123" t="str">
@@ -39090,9 +39078,7 @@
           </cell>
         </row>
         <row r="1347">
-          <cell r="B1347">
-            <v>0</v>
-          </cell>
+          <cell r="B1347"/>
         </row>
         <row r="1348">
           <cell r="B1348" t="str">
@@ -40280,9 +40266,7 @@
           </cell>
         </row>
         <row r="1585">
-          <cell r="B1585">
-            <v>0</v>
-          </cell>
+          <cell r="B1585"/>
         </row>
         <row r="1586">
           <cell r="B1586" t="str">
@@ -41320,9 +41304,7 @@
           </cell>
         </row>
         <row r="1793">
-          <cell r="B1793">
-            <v>0</v>
-          </cell>
+          <cell r="B1793"/>
         </row>
         <row r="1794">
           <cell r="B1794" t="str">
@@ -42225,9 +42207,7 @@
           </cell>
         </row>
         <row r="1974">
-          <cell r="B1974">
-            <v>0</v>
-          </cell>
+          <cell r="B1974"/>
         </row>
         <row r="1975">
           <cell r="B1975" t="str">
@@ -43210,813 +43190,1016 @@
           </cell>
         </row>
         <row r="2171">
-          <cell r="B2171">
-            <v>0</v>
+          <cell r="B2171" t="str">
+            <v>AM 22120001</v>
           </cell>
         </row>
         <row r="2172">
-          <cell r="B2172">
-            <v>0</v>
+          <cell r="B2172" t="str">
+            <v>AM 22120002</v>
           </cell>
         </row>
         <row r="2173">
-          <cell r="B2173">
-            <v>0</v>
+          <cell r="B2173" t="str">
+            <v>AM 22120003</v>
           </cell>
         </row>
         <row r="2174">
-          <cell r="B2174">
-            <v>0</v>
+          <cell r="B2174" t="str">
+            <v>AM 22120004</v>
           </cell>
         </row>
         <row r="2175">
-          <cell r="B2175">
-            <v>0</v>
+          <cell r="B2175" t="str">
+            <v>AM 22120005</v>
           </cell>
         </row>
         <row r="2176">
-          <cell r="B2176">
-            <v>0</v>
+          <cell r="B2176" t="str">
+            <v>AM 22120006</v>
           </cell>
         </row>
         <row r="2177">
-          <cell r="B2177">
-            <v>0</v>
+          <cell r="B2177" t="str">
+            <v>AM 22120007</v>
           </cell>
         </row>
         <row r="2178">
-          <cell r="B2178">
-            <v>0</v>
+          <cell r="B2178" t="str">
+            <v>AM 22120008</v>
           </cell>
         </row>
         <row r="2179">
-          <cell r="B2179">
-            <v>0</v>
+          <cell r="B2179" t="str">
+            <v>AM 22120009</v>
           </cell>
         </row>
         <row r="2180">
-          <cell r="B2180">
-            <v>0</v>
+          <cell r="B2180" t="str">
+            <v>AM 22120010</v>
           </cell>
         </row>
         <row r="2181">
-          <cell r="B2181">
-            <v>0</v>
+          <cell r="B2181" t="str">
+            <v>AM 22120011</v>
           </cell>
         </row>
         <row r="2182">
-          <cell r="B2182">
-            <v>0</v>
+          <cell r="B2182" t="str">
+            <v>AM 22120012</v>
           </cell>
         </row>
         <row r="2183">
-          <cell r="B2183">
-            <v>0</v>
+          <cell r="B2183" t="str">
+            <v>AM 22120013</v>
           </cell>
         </row>
         <row r="2184">
-          <cell r="B2184">
-            <v>0</v>
+          <cell r="B2184" t="str">
+            <v>AM 22120014</v>
           </cell>
         </row>
         <row r="2185">
-          <cell r="B2185">
-            <v>0</v>
+          <cell r="B2185" t="str">
+            <v>AM 22120015</v>
           </cell>
         </row>
         <row r="2186">
-          <cell r="B2186">
-            <v>0</v>
+          <cell r="B2186" t="str">
+            <v>AM 22120016</v>
           </cell>
         </row>
         <row r="2187">
-          <cell r="B2187">
-            <v>0</v>
+          <cell r="B2187" t="str">
+            <v>AM 22120017</v>
           </cell>
         </row>
         <row r="2188">
-          <cell r="B2188">
-            <v>0</v>
+          <cell r="B2188" t="str">
+            <v>AM 22120018</v>
           </cell>
         </row>
         <row r="2189">
-          <cell r="B2189">
-            <v>0</v>
+          <cell r="B2189" t="str">
+            <v>AM 22120019</v>
           </cell>
         </row>
         <row r="2190">
-          <cell r="B2190">
-            <v>0</v>
+          <cell r="B2190" t="str">
+            <v>AM 22120020</v>
           </cell>
         </row>
         <row r="2191">
-          <cell r="B2191">
-            <v>0</v>
+          <cell r="B2191" t="str">
+            <v>AM 22120021</v>
           </cell>
         </row>
         <row r="2192">
-          <cell r="B2192">
-            <v>0</v>
+          <cell r="B2192" t="str">
+            <v>AM 22120022</v>
           </cell>
         </row>
         <row r="2193">
-          <cell r="B2193">
-            <v>0</v>
+          <cell r="B2193" t="str">
+            <v>AM 22120023</v>
           </cell>
         </row>
         <row r="2194">
-          <cell r="B2194">
-            <v>0</v>
+          <cell r="B2194" t="str">
+            <v>AM 22120024</v>
           </cell>
         </row>
         <row r="2195">
-          <cell r="B2195">
-            <v>0</v>
+          <cell r="B2195" t="str">
+            <v>AM 22120025</v>
           </cell>
         </row>
         <row r="2196">
-          <cell r="B2196">
-            <v>0</v>
+          <cell r="B2196" t="str">
+            <v>AM 22120026</v>
           </cell>
         </row>
         <row r="2197">
-          <cell r="B2197">
-            <v>0</v>
+          <cell r="B2197" t="str">
+            <v>AM 22120027</v>
           </cell>
         </row>
         <row r="2198">
-          <cell r="B2198">
-            <v>0</v>
+          <cell r="B2198" t="str">
+            <v>AM 22120028</v>
           </cell>
         </row>
         <row r="2199">
-          <cell r="B2199">
-            <v>0</v>
+          <cell r="B2199" t="str">
+            <v>AM 22120029</v>
           </cell>
         </row>
         <row r="2200">
-          <cell r="B2200">
-            <v>0</v>
+          <cell r="B2200" t="str">
+            <v>AM 22120030</v>
           </cell>
         </row>
         <row r="2201">
-          <cell r="B2201">
-            <v>0</v>
+          <cell r="B2201" t="str">
+            <v>AM 22120031</v>
           </cell>
         </row>
         <row r="2202">
-          <cell r="B2202">
-            <v>0</v>
+          <cell r="B2202" t="str">
+            <v>AM 22120032</v>
           </cell>
         </row>
         <row r="2203">
-          <cell r="B2203">
-            <v>0</v>
+          <cell r="B2203" t="str">
+            <v>AM 22120033</v>
           </cell>
         </row>
         <row r="2204">
-          <cell r="B2204">
-            <v>0</v>
+          <cell r="B2204" t="str">
+            <v>AM 22120034</v>
           </cell>
         </row>
         <row r="2205">
-          <cell r="B2205">
-            <v>0</v>
+          <cell r="B2205" t="str">
+            <v>AM 22120035</v>
           </cell>
         </row>
         <row r="2206">
-          <cell r="B2206">
-            <v>0</v>
+          <cell r="B2206" t="str">
+            <v>AM 22120036</v>
           </cell>
         </row>
         <row r="2207">
-          <cell r="B2207">
-            <v>0</v>
+          <cell r="B2207" t="str">
+            <v>AM 22120037</v>
           </cell>
         </row>
         <row r="2208">
-          <cell r="B2208">
-            <v>0</v>
+          <cell r="B2208" t="str">
+            <v>AM 22120038</v>
           </cell>
         </row>
         <row r="2209">
-          <cell r="B2209">
-            <v>0</v>
+          <cell r="B2209" t="str">
+            <v>AM 22120039</v>
           </cell>
         </row>
         <row r="2210">
-          <cell r="B2210">
-            <v>0</v>
+          <cell r="B2210" t="str">
+            <v>AM 22120040</v>
           </cell>
         </row>
         <row r="2211">
-          <cell r="B2211">
-            <v>0</v>
+          <cell r="B2211" t="str">
+            <v>AM 22120041</v>
           </cell>
         </row>
         <row r="2212">
-          <cell r="B2212">
-            <v>0</v>
+          <cell r="B2212" t="str">
+            <v>AM 22120042</v>
           </cell>
         </row>
         <row r="2213">
-          <cell r="B2213">
-            <v>0</v>
+          <cell r="B2213" t="str">
+            <v>AM 22120043</v>
           </cell>
         </row>
         <row r="2214">
-          <cell r="B2214">
-            <v>0</v>
+          <cell r="B2214" t="str">
+            <v>AM 22120044</v>
           </cell>
         </row>
         <row r="2215">
-          <cell r="B2215">
-            <v>0</v>
+          <cell r="B2215" t="str">
+            <v>AM 22120045</v>
           </cell>
         </row>
         <row r="2216">
-          <cell r="B2216">
-            <v>0</v>
+          <cell r="B2216" t="str">
+            <v>AM 22120046</v>
           </cell>
         </row>
         <row r="2217">
-          <cell r="B2217">
-            <v>0</v>
+          <cell r="B2217" t="str">
+            <v>AM 22120047</v>
           </cell>
         </row>
         <row r="2218">
-          <cell r="B2218">
-            <v>0</v>
+          <cell r="B2218" t="str">
+            <v>AM 22120048</v>
           </cell>
         </row>
         <row r="2219">
-          <cell r="B2219">
-            <v>0</v>
+          <cell r="B2219" t="str">
+            <v>AM 22120049</v>
           </cell>
         </row>
         <row r="2220">
-          <cell r="B2220">
-            <v>0</v>
+          <cell r="B2220" t="str">
+            <v>AM 22120050</v>
           </cell>
         </row>
         <row r="2221">
-          <cell r="B2221">
-            <v>0</v>
+          <cell r="B2221" t="str">
+            <v>AM 22120051</v>
           </cell>
         </row>
         <row r="2222">
-          <cell r="B2222">
-            <v>0</v>
+          <cell r="B2222" t="str">
+            <v>AM 22120052</v>
           </cell>
         </row>
         <row r="2223">
-          <cell r="B2223">
-            <v>0</v>
+          <cell r="B2223" t="str">
+            <v>AM 22120053</v>
           </cell>
         </row>
         <row r="2224">
-          <cell r="B2224">
-            <v>0</v>
+          <cell r="B2224" t="str">
+            <v>AM 22120054</v>
           </cell>
         </row>
         <row r="2225">
-          <cell r="B2225">
-            <v>0</v>
+          <cell r="B2225" t="str">
+            <v>AM 22120055</v>
           </cell>
         </row>
         <row r="2226">
-          <cell r="B2226">
-            <v>0</v>
+          <cell r="B2226" t="str">
+            <v>AM 22120056</v>
           </cell>
         </row>
         <row r="2227">
-          <cell r="B2227">
-            <v>0</v>
+          <cell r="B2227" t="str">
+            <v>AM 22120057</v>
           </cell>
         </row>
         <row r="2228">
-          <cell r="B2228">
-            <v>0</v>
+          <cell r="B2228" t="str">
+            <v>AM 22120058</v>
           </cell>
         </row>
         <row r="2229">
-          <cell r="B2229">
-            <v>0</v>
+          <cell r="B2229" t="str">
+            <v>AM 22120059</v>
           </cell>
         </row>
         <row r="2230">
-          <cell r="B2230">
-            <v>0</v>
+          <cell r="B2230" t="str">
+            <v>AM 22120060</v>
           </cell>
         </row>
         <row r="2231">
-          <cell r="B2231">
-            <v>0</v>
+          <cell r="B2231" t="str">
+            <v>AM 22120061</v>
           </cell>
         </row>
         <row r="2232">
-          <cell r="B2232">
-            <v>0</v>
+          <cell r="B2232" t="str">
+            <v>AM 22120062</v>
           </cell>
         </row>
         <row r="2233">
-          <cell r="B2233">
-            <v>0</v>
+          <cell r="B2233" t="str">
+            <v>AM 22120063</v>
           </cell>
         </row>
         <row r="2234">
-          <cell r="B2234">
-            <v>0</v>
+          <cell r="B2234" t="str">
+            <v>AM 22120064</v>
           </cell>
         </row>
         <row r="2235">
-          <cell r="B2235">
-            <v>0</v>
+          <cell r="B2235" t="str">
+            <v>AM 22120065</v>
           </cell>
         </row>
         <row r="2236">
-          <cell r="B2236">
-            <v>0</v>
+          <cell r="B2236" t="str">
+            <v>AM 22120066</v>
           </cell>
         </row>
         <row r="2237">
-          <cell r="B2237">
-            <v>0</v>
+          <cell r="B2237" t="str">
+            <v>AM 22120067</v>
           </cell>
         </row>
         <row r="2238">
-          <cell r="B2238">
-            <v>0</v>
+          <cell r="B2238" t="str">
+            <v>AM 22120068</v>
           </cell>
         </row>
         <row r="2239">
-          <cell r="B2239">
-            <v>0</v>
+          <cell r="B2239" t="str">
+            <v>AM 22120069</v>
           </cell>
         </row>
         <row r="2240">
-          <cell r="B2240">
-            <v>0</v>
+          <cell r="B2240" t="str">
+            <v>AM 22120070</v>
           </cell>
         </row>
         <row r="2241">
-          <cell r="B2241">
-            <v>0</v>
+          <cell r="B2241" t="str">
+            <v>AM 22120071</v>
           </cell>
         </row>
         <row r="2242">
-          <cell r="B2242">
-            <v>0</v>
+          <cell r="B2242" t="str">
+            <v>AM 22120072</v>
           </cell>
         </row>
         <row r="2243">
-          <cell r="B2243">
-            <v>0</v>
+          <cell r="B2243" t="str">
+            <v>AM 22120073</v>
           </cell>
         </row>
         <row r="2244">
-          <cell r="B2244">
-            <v>0</v>
+          <cell r="B2244" t="str">
+            <v>AM 22120074</v>
           </cell>
         </row>
         <row r="2245">
-          <cell r="B2245">
-            <v>0</v>
+          <cell r="B2245" t="str">
+            <v>AM 22120075</v>
           </cell>
         </row>
         <row r="2246">
-          <cell r="B2246">
-            <v>0</v>
+          <cell r="B2246" t="str">
+            <v>AM 22120076</v>
           </cell>
         </row>
         <row r="2247">
-          <cell r="B2247">
-            <v>0</v>
+          <cell r="B2247" t="str">
+            <v>AM 22120077</v>
           </cell>
         </row>
         <row r="2248">
-          <cell r="B2248">
-            <v>0</v>
+          <cell r="B2248" t="str">
+            <v>AM 22120078</v>
           </cell>
         </row>
         <row r="2249">
-          <cell r="B2249">
-            <v>0</v>
+          <cell r="B2249" t="str">
+            <v>AM 22120079</v>
           </cell>
         </row>
         <row r="2250">
-          <cell r="B2250">
-            <v>0</v>
+          <cell r="B2250" t="str">
+            <v>AM 22120080</v>
           </cell>
         </row>
         <row r="2251">
-          <cell r="B2251">
-            <v>0</v>
+          <cell r="B2251" t="str">
+            <v>AM 22120081</v>
           </cell>
         </row>
         <row r="2252">
-          <cell r="B2252">
-            <v>0</v>
+          <cell r="B2252" t="str">
+            <v>AM 22120082</v>
           </cell>
         </row>
         <row r="2253">
-          <cell r="B2253">
-            <v>0</v>
+          <cell r="B2253" t="str">
+            <v>AM 22120083</v>
           </cell>
         </row>
         <row r="2254">
-          <cell r="B2254">
-            <v>0</v>
+          <cell r="B2254" t="str">
+            <v>AM 22120084</v>
           </cell>
         </row>
         <row r="2255">
-          <cell r="B2255">
-            <v>0</v>
+          <cell r="B2255" t="str">
+            <v>AM 22120085</v>
           </cell>
         </row>
         <row r="2256">
-          <cell r="B2256">
-            <v>0</v>
+          <cell r="B2256" t="str">
+            <v>AM 22120086</v>
           </cell>
         </row>
         <row r="2257">
-          <cell r="B2257">
-            <v>0</v>
+          <cell r="B2257" t="str">
+            <v>AM 22120087</v>
           </cell>
         </row>
         <row r="2258">
-          <cell r="B2258">
-            <v>0</v>
+          <cell r="B2258" t="str">
+            <v>AM 22120088</v>
           </cell>
         </row>
         <row r="2259">
-          <cell r="B2259">
-            <v>0</v>
+          <cell r="B2259" t="str">
+            <v>AM 22120089</v>
           </cell>
         </row>
         <row r="2260">
-          <cell r="B2260">
-            <v>0</v>
+          <cell r="B2260" t="str">
+            <v>AM 22120090</v>
           </cell>
         </row>
         <row r="2261">
-          <cell r="B2261">
-            <v>0</v>
+          <cell r="B2261" t="str">
+            <v>AM 22120091</v>
           </cell>
         </row>
         <row r="2262">
-          <cell r="B2262">
-            <v>0</v>
+          <cell r="B2262" t="str">
+            <v>AM 22120092</v>
           </cell>
         </row>
         <row r="2263">
-          <cell r="B2263">
-            <v>0</v>
+          <cell r="B2263" t="str">
+            <v>AM 22120093</v>
           </cell>
         </row>
         <row r="2264">
-          <cell r="B2264">
-            <v>0</v>
+          <cell r="B2264" t="str">
+            <v>AM 22120094</v>
           </cell>
         </row>
         <row r="2265">
-          <cell r="B2265">
-            <v>0</v>
+          <cell r="B2265" t="str">
+            <v>AM 22120095</v>
           </cell>
         </row>
         <row r="2266">
-          <cell r="B2266">
-            <v>0</v>
+          <cell r="B2266" t="str">
+            <v>AM 22120096</v>
           </cell>
         </row>
         <row r="2267">
-          <cell r="B2267">
-            <v>0</v>
+          <cell r="B2267" t="str">
+            <v>AM 22120097</v>
           </cell>
         </row>
         <row r="2268">
-          <cell r="B2268">
-            <v>0</v>
+          <cell r="B2268" t="str">
+            <v>AM 22120098</v>
           </cell>
         </row>
         <row r="2269">
-          <cell r="B2269">
-            <v>0</v>
+          <cell r="B2269" t="str">
+            <v>AM 22120099</v>
           </cell>
         </row>
         <row r="2270">
-          <cell r="B2270">
-            <v>0</v>
+          <cell r="B2270" t="str">
+            <v>AM 22120100</v>
           </cell>
         </row>
         <row r="2271">
-          <cell r="B2271">
-            <v>0</v>
+          <cell r="B2271" t="str">
+            <v>AM 22120101</v>
           </cell>
         </row>
         <row r="2272">
-          <cell r="B2272">
-            <v>0</v>
+          <cell r="B2272" t="str">
+            <v>AM 22120102</v>
           </cell>
         </row>
         <row r="2273">
-          <cell r="B2273">
-            <v>0</v>
+          <cell r="B2273" t="str">
+            <v>AM 22120103</v>
           </cell>
         </row>
         <row r="2274">
-          <cell r="B2274">
-            <v>0</v>
+          <cell r="B2274" t="str">
+            <v>AM 22120104</v>
           </cell>
         </row>
         <row r="2275">
-          <cell r="B2275">
-            <v>0</v>
+          <cell r="B2275" t="str">
+            <v>AM 22120105</v>
           </cell>
         </row>
         <row r="2276">
-          <cell r="B2276">
-            <v>0</v>
+          <cell r="B2276" t="str">
+            <v>AM 22120106</v>
           </cell>
         </row>
         <row r="2277">
-          <cell r="B2277">
-            <v>0</v>
+          <cell r="B2277" t="str">
+            <v>AM 22120107</v>
           </cell>
         </row>
         <row r="2278">
-          <cell r="B2278">
-            <v>0</v>
+          <cell r="B2278" t="str">
+            <v>AM 22120108</v>
           </cell>
         </row>
         <row r="2279">
-          <cell r="B2279">
-            <v>0</v>
+          <cell r="B2279" t="str">
+            <v>AM 22120109</v>
           </cell>
         </row>
         <row r="2280">
-          <cell r="B2280">
-            <v>0</v>
+          <cell r="B2280" t="str">
+            <v>AM 22120110</v>
           </cell>
         </row>
         <row r="2281">
-          <cell r="B2281">
-            <v>0</v>
+          <cell r="B2281" t="str">
+            <v>AM 22120111</v>
           </cell>
         </row>
         <row r="2282">
-          <cell r="B2282">
-            <v>0</v>
+          <cell r="B2282" t="str">
+            <v>AM 22120112</v>
           </cell>
         </row>
         <row r="2283">
-          <cell r="B2283">
-            <v>0</v>
+          <cell r="B2283" t="str">
+            <v>AM 22120113</v>
           </cell>
         </row>
         <row r="2284">
-          <cell r="B2284">
-            <v>0</v>
+          <cell r="B2284" t="str">
+            <v>AM 22120114</v>
           </cell>
         </row>
         <row r="2285">
-          <cell r="B2285">
-            <v>0</v>
+          <cell r="B2285" t="str">
+            <v>AM 22120115</v>
           </cell>
         </row>
         <row r="2286">
-          <cell r="B2286">
-            <v>0</v>
+          <cell r="B2286" t="str">
+            <v>AM 22120116</v>
           </cell>
         </row>
         <row r="2287">
-          <cell r="B2287">
-            <v>0</v>
+          <cell r="B2287" t="str">
+            <v>AM 22120117</v>
           </cell>
         </row>
         <row r="2288">
-          <cell r="B2288">
-            <v>0</v>
+          <cell r="B2288" t="str">
+            <v>AM 22120118</v>
           </cell>
         </row>
         <row r="2289">
-          <cell r="B2289">
-            <v>0</v>
+          <cell r="B2289" t="str">
+            <v>AM 22120119</v>
           </cell>
         </row>
         <row r="2290">
-          <cell r="B2290">
-            <v>0</v>
+          <cell r="B2290" t="str">
+            <v>AM 22120120</v>
           </cell>
         </row>
         <row r="2291">
-          <cell r="B2291">
-            <v>0</v>
+          <cell r="B2291" t="str">
+            <v>AM 22120121</v>
           </cell>
         </row>
         <row r="2292">
-          <cell r="B2292">
-            <v>0</v>
+          <cell r="B2292" t="str">
+            <v>AM 22120122</v>
           </cell>
         </row>
         <row r="2293">
-          <cell r="B2293">
-            <v>0</v>
+          <cell r="B2293" t="str">
+            <v>AM 22120123</v>
           </cell>
         </row>
         <row r="2294">
-          <cell r="B2294">
-            <v>0</v>
+          <cell r="B2294" t="str">
+            <v>AM 22120124</v>
           </cell>
         </row>
         <row r="2295">
-          <cell r="B2295">
-            <v>0</v>
+          <cell r="B2295" t="str">
+            <v>AM 22120125</v>
           </cell>
         </row>
         <row r="2296">
-          <cell r="B2296">
-            <v>0</v>
+          <cell r="B2296" t="str">
+            <v>AM 22120126</v>
           </cell>
         </row>
         <row r="2297">
-          <cell r="B2297">
-            <v>0</v>
+          <cell r="B2297" t="str">
+            <v>AM 22120127</v>
           </cell>
         </row>
         <row r="2298">
-          <cell r="B2298">
-            <v>0</v>
+          <cell r="B2298" t="str">
+            <v>AM 22120128</v>
           </cell>
         </row>
         <row r="2299">
-          <cell r="B2299">
-            <v>0</v>
+          <cell r="B2299" t="str">
+            <v>AM 22120129</v>
           </cell>
         </row>
         <row r="2300">
-          <cell r="B2300">
-            <v>0</v>
+          <cell r="B2300" t="str">
+            <v>AM 22120130</v>
           </cell>
         </row>
         <row r="2301">
-          <cell r="B2301">
-            <v>0</v>
+          <cell r="B2301" t="str">
+            <v>AM 22120131</v>
           </cell>
         </row>
         <row r="2302">
-          <cell r="B2302">
-            <v>0</v>
+          <cell r="B2302" t="str">
+            <v>AM 22120132</v>
           </cell>
         </row>
         <row r="2303">
-          <cell r="B2303">
-            <v>0</v>
+          <cell r="B2303" t="str">
+            <v>AM 22120133</v>
           </cell>
         </row>
         <row r="2304">
-          <cell r="B2304">
-            <v>0</v>
+          <cell r="B2304" t="str">
+            <v>AM 22120134</v>
           </cell>
         </row>
         <row r="2305">
-          <cell r="B2305">
-            <v>0</v>
+          <cell r="B2305" t="str">
+            <v>AM 22120135</v>
           </cell>
         </row>
         <row r="2306">
-          <cell r="B2306">
-            <v>0</v>
+          <cell r="B2306" t="str">
+            <v>AM 22120136</v>
           </cell>
         </row>
         <row r="2307">
-          <cell r="B2307">
-            <v>0</v>
+          <cell r="B2307" t="str">
+            <v>AM 22120137</v>
           </cell>
         </row>
         <row r="2308">
-          <cell r="B2308">
-            <v>0</v>
+          <cell r="B2308" t="str">
+            <v>AM 22120138</v>
           </cell>
         </row>
         <row r="2309">
-          <cell r="B2309">
-            <v>0</v>
+          <cell r="B2309" t="str">
+            <v>AM 22120139</v>
           </cell>
         </row>
         <row r="2310">
-          <cell r="B2310">
-            <v>0</v>
+          <cell r="B2310" t="str">
+            <v>AM 22120140</v>
           </cell>
         </row>
         <row r="2311">
-          <cell r="B2311">
-            <v>0</v>
+          <cell r="B2311" t="str">
+            <v>AM 22120141</v>
           </cell>
         </row>
         <row r="2312">
-          <cell r="B2312">
-            <v>0</v>
+          <cell r="B2312" t="str">
+            <v>AM 22120142</v>
           </cell>
         </row>
         <row r="2313">
-          <cell r="B2313">
-            <v>0</v>
+          <cell r="B2313" t="str">
+            <v>AM 22120143</v>
           </cell>
         </row>
         <row r="2314">
-          <cell r="B2314">
-            <v>0</v>
+          <cell r="B2314" t="str">
+            <v>AM 22120144</v>
           </cell>
         </row>
         <row r="2315">
-          <cell r="B2315">
-            <v>0</v>
+          <cell r="B2315" t="str">
+            <v>AM 22120145</v>
           </cell>
         </row>
         <row r="2316">
-          <cell r="B2316">
-            <v>0</v>
+          <cell r="B2316" t="str">
+            <v>AM 22120146</v>
           </cell>
         </row>
         <row r="2317">
-          <cell r="B2317">
-            <v>0</v>
+          <cell r="B2317" t="str">
+            <v>AM 22120147</v>
           </cell>
         </row>
         <row r="2318">
-          <cell r="B2318">
-            <v>0</v>
+          <cell r="B2318" t="str">
+            <v>AM 22120148</v>
           </cell>
         </row>
         <row r="2319">
-          <cell r="B2319">
-            <v>0</v>
+          <cell r="B2319" t="str">
+            <v>AM 22120149</v>
           </cell>
         </row>
         <row r="2320">
-          <cell r="B2320">
-            <v>0</v>
+          <cell r="B2320" t="str">
+            <v>AM 22120150</v>
           </cell>
         </row>
         <row r="2321">
           <cell r="B2321" t="str">
-            <v>TOTAL BULAN DESEMBER</v>
+            <v>AM 22120151</v>
           </cell>
         </row>
         <row r="2322">
-          <cell r="B2322">
-            <v>0</v>
+          <cell r="B2322" t="str">
+            <v>AM 22120152</v>
           </cell>
         </row>
         <row r="2323">
           <cell r="B2323" t="str">
+            <v>AM 22120153</v>
+          </cell>
+        </row>
+        <row r="2324">
+          <cell r="B2324" t="str">
+            <v>AM 22120154</v>
+          </cell>
+        </row>
+        <row r="2325">
+          <cell r="B2325" t="str">
+            <v>AM 22120155</v>
+          </cell>
+        </row>
+        <row r="2326">
+          <cell r="B2326" t="str">
+            <v>AM 22120156</v>
+          </cell>
+        </row>
+        <row r="2327">
+          <cell r="B2327" t="str">
+            <v>AM 22120157</v>
+          </cell>
+        </row>
+        <row r="2328">
+          <cell r="B2328" t="str">
+            <v>AM 22120158</v>
+          </cell>
+        </row>
+        <row r="2329">
+          <cell r="B2329" t="str">
+            <v>AM 22120159</v>
+          </cell>
+        </row>
+        <row r="2330">
+          <cell r="B2330" t="str">
+            <v>AM 22120160</v>
+          </cell>
+        </row>
+        <row r="2331">
+          <cell r="B2331" t="str">
+            <v>AM 22120161</v>
+          </cell>
+        </row>
+        <row r="2332">
+          <cell r="B2332" t="str">
+            <v>AM 22120162</v>
+          </cell>
+        </row>
+        <row r="2333">
+          <cell r="B2333" t="str">
+            <v>AM 22120163</v>
+          </cell>
+        </row>
+        <row r="2334">
+          <cell r="B2334" t="str">
+            <v>AM 22120164</v>
+          </cell>
+        </row>
+        <row r="2335">
+          <cell r="B2335" t="str">
+            <v>AM 22120165</v>
+          </cell>
+        </row>
+        <row r="2336">
+          <cell r="B2336" t="str">
+            <v>AM 22120166</v>
+          </cell>
+        </row>
+        <row r="2337">
+          <cell r="B2337" t="str">
+            <v>AM 22120167</v>
+          </cell>
+        </row>
+        <row r="2338">
+          <cell r="B2338" t="str">
+            <v>AM 22120168</v>
+          </cell>
+        </row>
+        <row r="2339">
+          <cell r="B2339" t="str">
+            <v>AM 22120169</v>
+          </cell>
+        </row>
+        <row r="2340">
+          <cell r="B2340" t="str">
+            <v>AM 22120170</v>
+          </cell>
+        </row>
+        <row r="2341">
+          <cell r="B2341" t="str">
+            <v>AM 22120171</v>
+          </cell>
+        </row>
+        <row r="2342">
+          <cell r="B2342" t="str">
+            <v>AM 22120172</v>
+          </cell>
+        </row>
+        <row r="2343">
+          <cell r="B2343" t="str">
+            <v>AM 22120173</v>
+          </cell>
+        </row>
+        <row r="2344">
+          <cell r="B2344" t="str">
+            <v>AM 22120174</v>
+          </cell>
+        </row>
+        <row r="2345">
+          <cell r="B2345" t="str">
+            <v>AM 22120175</v>
+          </cell>
+        </row>
+        <row r="2346">
+          <cell r="B2346" t="str">
+            <v>AM 22120176</v>
+          </cell>
+        </row>
+        <row r="2347">
+          <cell r="B2347" t="str">
+            <v>AM 22120177</v>
+          </cell>
+        </row>
+        <row r="2348">
+          <cell r="B2348" t="str">
+            <v>AM 22120178</v>
+          </cell>
+        </row>
+        <row r="2349">
+          <cell r="B2349" t="str">
+            <v>AM 22120179</v>
+          </cell>
+        </row>
+        <row r="2350">
+          <cell r="B2350" t="str">
+            <v>AM 22120180</v>
+          </cell>
+        </row>
+        <row r="2351">
+          <cell r="B2351" t="str">
+            <v>AM 22120181</v>
+          </cell>
+        </row>
+        <row r="2352">
+          <cell r="B2352" t="str">
+            <v>AM 22120182</v>
+          </cell>
+        </row>
+        <row r="2353">
+          <cell r="B2353" t="str">
+            <v>AM 22120183</v>
+          </cell>
+        </row>
+        <row r="2354">
+          <cell r="B2354" t="str">
+            <v>AM 22120184</v>
+          </cell>
+        </row>
+        <row r="2355">
+          <cell r="B2355" t="str">
+            <v>AM 22120185</v>
+          </cell>
+        </row>
+        <row r="2356">
+          <cell r="B2356" t="str">
+            <v>AM 22120186</v>
+          </cell>
+        </row>
+        <row r="2357">
+          <cell r="B2357" t="str">
+            <v>AM 22120187</v>
+          </cell>
+        </row>
+        <row r="2358">
+          <cell r="B2358" t="str">
+            <v>AM 22120188</v>
+          </cell>
+        </row>
+        <row r="2359">
+          <cell r="B2359" t="str">
+            <v>AM 22120189</v>
+          </cell>
+        </row>
+        <row r="2360">
+          <cell r="B2360" t="str">
+            <v>AM 22120190</v>
+          </cell>
+        </row>
+        <row r="2361">
+          <cell r="B2361" t="str">
+            <v>AM 22120191</v>
+          </cell>
+        </row>
+        <row r="2362">
+          <cell r="B2362" t="str">
+            <v>AM 22120192</v>
+          </cell>
+        </row>
+        <row r="2363">
+          <cell r="B2363" t="str">
+            <v>AM 22120193</v>
+          </cell>
+        </row>
+        <row r="2364">
+          <cell r="B2364" t="str">
+            <v>AM 22120194</v>
+          </cell>
+        </row>
+        <row r="2365">
+          <cell r="B2365" t="str">
+            <v>AM 22120195</v>
+          </cell>
+        </row>
+        <row r="2366">
+          <cell r="B2366" t="str">
+            <v>AM 22120196</v>
+          </cell>
+        </row>
+        <row r="2367">
+          <cell r="B2367" t="str">
+            <v>AM 22120197</v>
+          </cell>
+        </row>
+        <row r="2368">
+          <cell r="B2368" t="str">
+            <v>AM 22120198</v>
+          </cell>
+        </row>
+        <row r="2369">
+          <cell r="B2369" t="str">
+            <v>AM 22120199</v>
+          </cell>
+        </row>
+        <row r="2370">
+          <cell r="B2370" t="str">
+            <v>AM 22120200</v>
+          </cell>
+        </row>
+        <row r="2371">
+          <cell r="B2371"/>
+        </row>
+        <row r="2372">
+          <cell r="B2372" t="str">
+            <v>TOTAL BULAN DESEMBER</v>
+          </cell>
+        </row>
+        <row r="2374">
+          <cell r="B2374" t="str">
             <v>TOTAL PENJUALAN DALAM 1 TAHUN   =</v>
-          </cell>
-        </row>
-        <row r="2324">
-          <cell r="B2324">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2325">
-          <cell r="B2325">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2326">
-          <cell r="B2326">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2327">
-          <cell r="B2327">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2328">
-          <cell r="B2328">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2329">
-          <cell r="B2329">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2330">
-          <cell r="B2330">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2331">
-          <cell r="B2331">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2333">
-          <cell r="B2333">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -47002,7 +47185,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:A26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -47155,7 +47338,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
@@ -47880,7 +48063,7 @@
   <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55411,9 +55594,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S3" s="92" t="e">
+      <c r="S3" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2171</v>
       </c>
       <c r="U3" t="s">
         <v>30</v>
@@ -55487,9 +55670,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S4" s="92" t="e">
+      <c r="S4" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2172</v>
       </c>
       <c r="V4" s="95">
         <f>(V2/1.11)*11%</f>
@@ -55560,9 +55743,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S5" s="92" t="e">
+      <c r="S5" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -55629,9 +55812,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S6" s="92" t="e">
+      <c r="S6" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -55698,9 +55881,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S7" s="92" t="e">
+      <c r="S7" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -55767,9 +55950,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S8" s="92" t="e">
+      <c r="S8" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -55836,9 +56019,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S9" s="92" t="e">
+      <c r="S9" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -55905,9 +56088,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S10" s="92" t="e">
+      <c r="S10" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -55974,9 +56157,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S11" s="92" t="e">
+      <c r="S11" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -56043,9 +56226,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S12" s="92" t="e">
+      <c r="S12" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -56112,9 +56295,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S13" s="92" t="e">
+      <c r="S13" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -56181,9 +56364,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S14" s="92" t="e">
+      <c r="S14" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -56250,9 +56433,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S15" s="92" t="e">
+      <c r="S15" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -56319,9 +56502,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S16" s="92" t="e">
+      <c r="S16" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -56388,9 +56571,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S17" s="92" t="e">
+      <c r="S17" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -56457,9 +56640,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S18" s="92" t="e">
+      <c r="S18" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -56526,9 +56709,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S19" s="92" t="e">
+      <c r="S19" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -56595,9 +56778,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S20" s="92" t="e">
+      <c r="S20" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -56664,9 +56847,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S21" s="92" t="e">
+      <c r="S21" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -56733,9 +56916,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S22" s="92" t="e">
+      <c r="S22" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -56802,9 +56985,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S23" s="92" t="e">
+      <c r="S23" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -56871,9 +57054,9 @@
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="S24" s="92" t="e">
+      <c r="S24" s="92">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[4]REKAP PENJUALAN'!$B:$B,0)</f>
-        <v>#N/A</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -60100,13 +60283,13 @@
       <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="103" t="str">
+      <c r="H3" s="108" t="str">
         <f>INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -60115,14 +60298,14 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="112" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -60131,20 +60314,20 @@
         <v>3</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="108">
+      <c r="D5" s="113">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
         <v>44923</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="110" t="str">
+      <c r="H5" s="115" t="str">
         <f>IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -60153,15 +60336,15 @@
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="107"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="112" t="str">
+      <c r="H6" s="117" t="str">
         <f>INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -60177,10 +60360,10 @@
       <c r="E7" s="9"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -60901,8 +61084,8 @@
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
       <c r="I28" s="65"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -60912,11 +61095,11 @@
       <c r="I29" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="118">
+      <c r="J29" s="104">
         <f>INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
         <v>2685780</v>
       </c>
-      <c r="K29" s="119"/>
+      <c r="K29" s="105"/>
       <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -60925,8 +61108,8 @@
       <c r="C30" s="66"/>
       <c r="D30" s="25"/>
       <c r="I30" s="68"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -60948,8 +61131,8 @@
       <c r="C32" s="66"/>
       <c r="D32" s="25"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -60964,11 +61147,11 @@
       <c r="I33" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="118">
+      <c r="J33" s="104">
         <f>INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
         <v>266158.37837837834</v>
       </c>
-      <c r="K33" s="119"/>
+      <c r="K33" s="105"/>
       <c r="L33" s="73"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -60977,8 +61160,8 @@
       <c r="C34" s="66"/>
       <c r="D34" s="25"/>
       <c r="I34" s="68"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
@@ -61019,11 +61202,11 @@
       <c r="I37" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="116" t="str">
+      <c r="J37" s="102" t="str">
         <f>INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI/ CONDRO</v>
       </c>
-      <c r="K37" s="117"/>
+      <c r="K37" s="103"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
@@ -61033,11 +61216,11 @@
       <c r="I38" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="116" t="str">
+      <c r="J38" s="102" t="str">
         <f>INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="117"/>
+      <c r="K38" s="103"/>
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -61052,6 +61235,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H3:K4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
@@ -61059,12 +61248,6 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BARU/2022/12 DES/keluar.xlsx
+++ b/BARU/2022/12 DES/keluar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId11"/>
+    <pivotCache cacheId="61" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1356,21 +1356,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1412,6 +1397,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21377,7 +21377,13 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>NO. INVOICE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6">
         <row r="1">
           <cell r="B1" t="str">
@@ -33350,7 +33356,9 @@
           </cell>
         </row>
         <row r="199">
-          <cell r="B199"/>
+          <cell r="B199">
+            <v>0</v>
+          </cell>
         </row>
         <row r="200">
           <cell r="B200" t="str">
@@ -34148,7 +34156,9 @@
           </cell>
         </row>
         <row r="359">
-          <cell r="B359"/>
+          <cell r="B359">
+            <v>0</v>
+          </cell>
         </row>
         <row r="360">
           <cell r="B360" t="str">
@@ -35141,7 +35151,9 @@
           </cell>
         </row>
         <row r="558">
-          <cell r="B558"/>
+          <cell r="B558">
+            <v>0</v>
+          </cell>
         </row>
         <row r="559">
           <cell r="B559" t="str">
@@ -35899,7 +35911,9 @@
           </cell>
         </row>
         <row r="710">
-          <cell r="B710"/>
+          <cell r="B710">
+            <v>0</v>
+          </cell>
         </row>
         <row r="711">
           <cell r="B711" t="str">
@@ -36822,7 +36836,9 @@
           </cell>
         </row>
         <row r="895">
-          <cell r="B895"/>
+          <cell r="B895">
+            <v>0</v>
+          </cell>
         </row>
         <row r="896">
           <cell r="B896" t="str">
@@ -37955,7 +37971,9 @@
           </cell>
         </row>
         <row r="1122">
-          <cell r="B1122"/>
+          <cell r="B1122">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1123">
           <cell r="B1123" t="str">
@@ -39078,7 +39096,9 @@
           </cell>
         </row>
         <row r="1347">
-          <cell r="B1347"/>
+          <cell r="B1347">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1348">
           <cell r="B1348" t="str">
@@ -40266,7 +40286,9 @@
           </cell>
         </row>
         <row r="1585">
-          <cell r="B1585"/>
+          <cell r="B1585">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1586">
           <cell r="B1586" t="str">
@@ -41304,7 +41326,9 @@
           </cell>
         </row>
         <row r="1793">
-          <cell r="B1793"/>
+          <cell r="B1793">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1794">
           <cell r="B1794" t="str">
@@ -42207,7 +42231,9 @@
           </cell>
         </row>
         <row r="1974">
-          <cell r="B1974"/>
+          <cell r="B1974">
+            <v>0</v>
+          </cell>
         </row>
         <row r="1975">
           <cell r="B1975" t="str">
@@ -44190,7 +44216,9 @@
           </cell>
         </row>
         <row r="2371">
-          <cell r="B2371"/>
+          <cell r="B2371">
+            <v>0</v>
+          </cell>
         </row>
         <row r="2372">
           <cell r="B2372" t="str">
@@ -44216,7 +44244,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44925.369825810187" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="96">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44933.610103240739" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="96">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
@@ -47185,7 +47213,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:A26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -47338,7 +47366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
@@ -48062,7 +48090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
@@ -55437,7 +55465,7 @@
   <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60283,13 +60311,13 @@
       <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="108" t="str">
+      <c r="H3" s="103" t="str">
         <f>INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="109"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -60298,14 +60326,14 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="107" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -60314,20 +60342,20 @@
         <v>3</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="113">
+      <c r="D5" s="108">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
         <v>44923</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="112"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="115" t="str">
+      <c r="H5" s="110" t="str">
         <f>IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="111"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -60336,15 +60364,15 @@
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="112"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="117" t="str">
+      <c r="H6" s="112" t="str">
         <f>INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -60360,10 +60388,10 @@
       <c r="E7" s="9"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="120"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -61084,8 +61112,8 @@
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
       <c r="I28" s="65"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -61095,11 +61123,11 @@
       <c r="I29" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="104">
+      <c r="J29" s="118">
         <f>INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
         <v>2685780</v>
       </c>
-      <c r="K29" s="105"/>
+      <c r="K29" s="119"/>
       <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -61108,8 +61136,8 @@
       <c r="C30" s="66"/>
       <c r="D30" s="25"/>
       <c r="I30" s="68"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -61131,8 +61159,8 @@
       <c r="C32" s="66"/>
       <c r="D32" s="25"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -61147,11 +61175,11 @@
       <c r="I33" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="104">
+      <c r="J33" s="118">
         <f>INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
         <v>266158.37837837834</v>
       </c>
-      <c r="K33" s="105"/>
+      <c r="K33" s="119"/>
       <c r="L33" s="73"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -61160,8 +61188,8 @@
       <c r="C34" s="66"/>
       <c r="D34" s="25"/>
       <c r="I34" s="68"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
@@ -61202,11 +61230,11 @@
       <c r="I37" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="102" t="str">
+      <c r="J37" s="116" t="str">
         <f>INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI/ CONDRO</v>
       </c>
-      <c r="K37" s="103"/>
+      <c r="K37" s="117"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
@@ -61216,11 +61244,11 @@
       <c r="I38" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="102" t="str">
+      <c r="J38" s="116" t="str">
         <f>INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="103"/>
+      <c r="K38" s="117"/>
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -61235,12 +61263,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
@@ -61248,6 +61270,12 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H3:K4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61269,8 +61297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61301,13 +61329,13 @@
       <c r="B2" s="92">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="e">
         <f>MATCH(A2,[1]!db[NB PAJAK],0)+1</f>
-        <v>1178</v>
-      </c>
-      <c r="E2" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" t="s">
         <v>165</v>
@@ -61320,13 +61348,13 @@
       <c r="B3" s="92">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="e">
         <f>MATCH(A3,[1]!db[NB PAJAK],0)+1</f>
-        <v>203</v>
-      </c>
-      <c r="E3" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -61336,13 +61364,13 @@
       <c r="B4" s="92">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="e">
         <f>MATCH(A4,[1]!db[NB PAJAK],0)+1</f>
-        <v>204</v>
-      </c>
-      <c r="E4" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
       <c r="G4" s="100" t="str">
         <f>HYPERLINK(G2)</f>
@@ -61356,13 +61384,13 @@
       <c r="B5" s="92">
         <v>2</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="92" t="e">
         <f>MATCH(A5,[1]!db[NB PAJAK],0)+1</f>
-        <v>1005</v>
-      </c>
-      <c r="E5" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -61372,13 +61400,13 @@
       <c r="B6" s="92">
         <v>1</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="92" t="e">
         <f>MATCH(A6,[1]!db[NB PAJAK],0)+1</f>
-        <v>1007</v>
-      </c>
-      <c r="E6" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -61388,13 +61416,13 @@
       <c r="B7" s="92">
         <v>1</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="92" t="e">
         <f>MATCH(A7,[1]!db[NB PAJAK],0)+1</f>
-        <v>1025</v>
-      </c>
-      <c r="E7" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -61404,13 +61432,13 @@
       <c r="B8" s="92">
         <v>2</v>
       </c>
-      <c r="D8" s="92">
+      <c r="D8" s="92" t="e">
         <f>MATCH(A8,[1]!db[NB PAJAK],0)+1</f>
-        <v>1055</v>
-      </c>
-      <c r="E8" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -61420,13 +61448,13 @@
       <c r="B9" s="92">
         <v>1</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="92" t="e">
         <f>MATCH(A9,[1]!db[NB PAJAK],0)+1</f>
-        <v>1071</v>
-      </c>
-      <c r="E9" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -61436,13 +61464,13 @@
       <c r="B10" s="92">
         <v>1</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="92" t="e">
         <f>MATCH(A10,[1]!db[NB PAJAK],0)+1</f>
-        <v>1497</v>
-      </c>
-      <c r="E10" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -61452,13 +61480,13 @@
       <c r="B11" s="92">
         <v>2</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="92" t="e">
         <f>MATCH(A11,[1]!db[NB PAJAK],0)+1</f>
-        <v>1500</v>
-      </c>
-      <c r="E11" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -61468,13 +61496,13 @@
       <c r="B12" s="92">
         <v>1</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="92" t="e">
         <f>MATCH(A12,[1]!db[NB PAJAK],0)+1</f>
-        <v>1501</v>
-      </c>
-      <c r="E12" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -61484,13 +61512,13 @@
       <c r="B13" s="92">
         <v>2</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="92" t="e">
         <f>MATCH(A13,[1]!db[NB PAJAK],0)+1</f>
-        <v>1502</v>
-      </c>
-      <c r="E13" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -61500,13 +61528,13 @@
       <c r="B14" s="92">
         <v>1</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="92" t="e">
         <f>MATCH(A14,[1]!db[NB PAJAK],0)+1</f>
-        <v>539</v>
-      </c>
-      <c r="E14" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -61516,13 +61544,13 @@
       <c r="B15" s="92">
         <v>1</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="92" t="e">
         <f>MATCH(A15,[1]!db[NB PAJAK],0)+1</f>
-        <v>540</v>
-      </c>
-      <c r="E15" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -61532,13 +61560,13 @@
       <c r="B16" s="92">
         <v>1</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="92" t="e">
         <f>MATCH(A16,[1]!db[NB PAJAK],0)+1</f>
-        <v>557</v>
-      </c>
-      <c r="E16" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -61548,13 +61576,13 @@
       <c r="B17" s="92">
         <v>1</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="92" t="e">
         <f>MATCH(A17,[1]!db[NB PAJAK],0)+1</f>
-        <v>562</v>
-      </c>
-      <c r="E17" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -61564,13 +61592,13 @@
       <c r="B18" s="92">
         <v>1</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="92" t="e">
         <f>MATCH(A18,[1]!db[NB PAJAK],0)+1</f>
-        <v>1088</v>
-      </c>
-      <c r="E18" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -61580,13 +61608,13 @@
       <c r="B19" s="92">
         <v>3</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="92" t="e">
         <f>MATCH(A19,[1]!db[NB PAJAK],0)+1</f>
-        <v>1089</v>
-      </c>
-      <c r="E19" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -61596,13 +61624,13 @@
       <c r="B20" s="92">
         <v>1</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D20" s="92" t="e">
         <f>MATCH(A20,[1]!db[NB PAJAK],0)+1</f>
-        <v>1113</v>
-      </c>
-      <c r="E20" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -61612,13 +61640,13 @@
       <c r="B21" s="92">
         <v>1</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="92" t="e">
         <f>MATCH(A21,[1]!db[NB PAJAK],0)+1</f>
-        <v>1115</v>
-      </c>
-      <c r="E21" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -61628,13 +61656,13 @@
       <c r="B22" s="92">
         <v>1</v>
       </c>
-      <c r="D22" s="92">
+      <c r="D22" s="92" t="e">
         <f>MATCH(A22,[1]!db[NB PAJAK],0)+1</f>
-        <v>1114</v>
-      </c>
-      <c r="E22" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -61644,13 +61672,13 @@
       <c r="B23" s="92">
         <v>1</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="92" t="e">
         <f>MATCH(A23,[1]!db[NB PAJAK],0)+1</f>
-        <v>1118</v>
-      </c>
-      <c r="E23" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -61660,13 +61688,13 @@
       <c r="B24" s="92">
         <v>1</v>
       </c>
-      <c r="D24" s="92">
+      <c r="D24" s="92" t="e">
         <f>MATCH(A24,[1]!db[NB PAJAK],0)+1</f>
-        <v>1140</v>
-      </c>
-      <c r="E24" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -61676,13 +61704,13 @@
       <c r="B25" s="92">
         <v>1</v>
       </c>
-      <c r="D25" s="92">
+      <c r="D25" s="92" t="e">
         <f>MATCH(A25,[1]!db[NB PAJAK],0)+1</f>
-        <v>2033</v>
-      </c>
-      <c r="E25" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -61692,13 +61720,13 @@
       <c r="B26" s="92">
         <v>1</v>
       </c>
-      <c r="D26" s="92">
+      <c r="D26" s="92" t="e">
         <f>MATCH(A26,[1]!db[NB PAJAK],0)+1</f>
-        <v>1084</v>
-      </c>
-      <c r="E26" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -61708,13 +61736,13 @@
       <c r="B27" s="92">
         <v>2</v>
       </c>
-      <c r="D27" s="92">
+      <c r="D27" s="92" t="e">
         <f>MATCH(A27,[1]!db[NB PAJAK],0)+1</f>
-        <v>1429</v>
-      </c>
-      <c r="E27" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -61724,13 +61752,13 @@
       <c r="B28" s="92">
         <v>1</v>
       </c>
-      <c r="D28" s="92">
+      <c r="D28" s="92" t="e">
         <f>MATCH(A28,[1]!db[NB PAJAK],0)+1</f>
-        <v>1430</v>
-      </c>
-      <c r="E28" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -61742,11 +61770,11 @@
       </c>
       <c r="D29" s="92" t="e">
         <f>MATCH(A29,[1]!db[NB PAJAK],0)+1</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="E29" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -61756,13 +61784,13 @@
       <c r="B30" s="92">
         <v>1</v>
       </c>
-      <c r="D30" s="92">
+      <c r="D30" s="92" t="e">
         <f>MATCH(A30,[1]!db[NB PAJAK],0)+1</f>
-        <v>320</v>
-      </c>
-      <c r="E30" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -61772,13 +61800,13 @@
       <c r="B31" s="92">
         <v>1</v>
       </c>
-      <c r="D31" s="92">
+      <c r="D31" s="92" t="e">
         <f>MATCH(A31,[1]!db[NB PAJAK],0)+1</f>
-        <v>893</v>
-      </c>
-      <c r="E31" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -61788,13 +61816,13 @@
       <c r="B32" s="92">
         <v>1</v>
       </c>
-      <c r="D32" s="92">
+      <c r="D32" s="92" t="e">
         <f>MATCH(A32,[1]!db[NB PAJAK],0)+1</f>
-        <v>900</v>
-      </c>
-      <c r="E32" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -61804,13 +61832,13 @@
       <c r="B33" s="92">
         <v>2</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="92" t="e">
         <f>MATCH(A33,[1]!db[NB PAJAK],0)+1</f>
-        <v>1137</v>
-      </c>
-      <c r="E33" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E33" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -61820,13 +61848,13 @@
       <c r="B34" s="92">
         <v>3</v>
       </c>
-      <c r="D34" s="92">
+      <c r="D34" s="92" t="e">
         <f>MATCH(A34,[1]!db[NB PAJAK],0)+1</f>
-        <v>1138</v>
-      </c>
-      <c r="E34" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E34" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -61836,13 +61864,13 @@
       <c r="B35" s="92">
         <v>1</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="92" t="e">
         <f>MATCH(A35,[1]!db[NB PAJAK],0)+1</f>
-        <v>1139</v>
-      </c>
-      <c r="E35" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E35" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -61852,13 +61880,13 @@
       <c r="B36" s="92">
         <v>1</v>
       </c>
-      <c r="D36" s="92">
+      <c r="D36" s="92" t="e">
         <f>MATCH(A36,[1]!db[NB PAJAK],0)+1</f>
-        <v>2034</v>
-      </c>
-      <c r="E36" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E36" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -61868,13 +61896,13 @@
       <c r="B37" s="92">
         <v>1</v>
       </c>
-      <c r="D37" s="92">
+      <c r="D37" s="92" t="e">
         <f>MATCH(A37,[1]!db[NB PAJAK],0)+1</f>
-        <v>1167</v>
-      </c>
-      <c r="E37" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E37" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -61884,13 +61912,13 @@
       <c r="B38" s="92">
         <v>1</v>
       </c>
-      <c r="D38" s="92">
+      <c r="D38" s="92" t="e">
         <f>MATCH(A38,[1]!db[NB PAJAK],0)+1</f>
-        <v>1204</v>
-      </c>
-      <c r="E38" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E38" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -61900,13 +61928,13 @@
       <c r="B39" s="92">
         <v>1</v>
       </c>
-      <c r="D39" s="92">
+      <c r="D39" s="92" t="e">
         <f>MATCH(A39,[1]!db[NB PAJAK],0)+1</f>
-        <v>1159</v>
-      </c>
-      <c r="E39" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -61916,13 +61944,13 @@
       <c r="B40" s="92">
         <v>1</v>
       </c>
-      <c r="D40" s="92">
+      <c r="D40" s="92" t="e">
         <f>MATCH(A40,[1]!db[NB PAJAK],0)+1</f>
-        <v>1261</v>
-      </c>
-      <c r="E40" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E40" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -61932,13 +61960,13 @@
       <c r="B41" s="92">
         <v>1</v>
       </c>
-      <c r="D41" s="92">
+      <c r="D41" s="92" t="e">
         <f>MATCH(A41,[1]!db[NB PAJAK],0)+1</f>
-        <v>1684</v>
-      </c>
-      <c r="E41" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E41" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -61948,13 +61976,13 @@
       <c r="B42" s="92">
         <v>1</v>
       </c>
-      <c r="D42" s="92">
+      <c r="D42" s="92" t="e">
         <f>MATCH(A42,[1]!db[NB PAJAK],0)+1</f>
-        <v>477</v>
-      </c>
-      <c r="E42" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E42" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -61964,13 +61992,13 @@
       <c r="B43" s="92">
         <v>1</v>
       </c>
-      <c r="D43" s="92">
+      <c r="D43" s="92" t="e">
         <f>MATCH(A43,[1]!db[NB PAJAK],0)+1</f>
-        <v>1045</v>
-      </c>
-      <c r="E43" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E43" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -61982,11 +62010,11 @@
       </c>
       <c r="D44" s="92" t="e">
         <f>MATCH(A44,[1]!db[NB PAJAK],0)+1</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="E44" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -61996,13 +62024,13 @@
       <c r="B45" s="92">
         <v>1</v>
       </c>
-      <c r="D45" s="92">
+      <c r="D45" s="92" t="e">
         <f>MATCH(A45,[1]!db[NB PAJAK],0)+1</f>
-        <v>1236</v>
-      </c>
-      <c r="E45" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E45" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -62012,13 +62040,13 @@
       <c r="B46" s="92">
         <v>1</v>
       </c>
-      <c r="D46" s="92">
+      <c r="D46" s="92" t="e">
         <f>MATCH(A46,[1]!db[NB PAJAK],0)+1</f>
-        <v>1233</v>
-      </c>
-      <c r="E46" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E46" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -62028,13 +62056,13 @@
       <c r="B47" s="92">
         <v>1</v>
       </c>
-      <c r="D47" s="92">
+      <c r="D47" s="92" t="e">
         <f>MATCH(A47,[1]!db[NB PAJAK],0)+1</f>
-        <v>1237</v>
-      </c>
-      <c r="E47" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E47" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -62044,13 +62072,13 @@
       <c r="B48" s="92">
         <v>1</v>
       </c>
-      <c r="D48" s="92">
+      <c r="D48" s="92" t="e">
         <f>MATCH(A48,[1]!db[NB PAJAK],0)+1</f>
-        <v>1238</v>
-      </c>
-      <c r="E48" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E48" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -62060,13 +62088,13 @@
       <c r="B49" s="92">
         <v>1</v>
       </c>
-      <c r="D49" s="92">
+      <c r="D49" s="92" t="e">
         <f>MATCH(A49,[1]!db[NB PAJAK],0)+1</f>
-        <v>1891</v>
-      </c>
-      <c r="E49" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E49" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -62076,13 +62104,13 @@
       <c r="B50" s="92">
         <v>2</v>
       </c>
-      <c r="D50" s="92">
+      <c r="D50" s="92" t="e">
         <f>MATCH(A50,[1]!db[NB PAJAK],0)+1</f>
-        <v>1144</v>
-      </c>
-      <c r="E50" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E50" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -62092,13 +62120,13 @@
       <c r="B51" s="92">
         <v>1</v>
       </c>
-      <c r="D51" s="92">
+      <c r="D51" s="92" t="e">
         <f>MATCH(A51,[1]!db[NB PAJAK],0)+1</f>
-        <v>1145</v>
-      </c>
-      <c r="E51" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E51" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -62108,13 +62136,13 @@
       <c r="B52" s="92">
         <v>2</v>
       </c>
-      <c r="D52" s="92">
+      <c r="D52" s="92" t="e">
         <f>MATCH(A52,[1]!db[NB PAJAK],0)+1</f>
-        <v>654</v>
-      </c>
-      <c r="E52" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E52" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -62124,13 +62152,13 @@
       <c r="B53" s="92">
         <v>1</v>
       </c>
-      <c r="D53" s="92">
+      <c r="D53" s="92" t="e">
         <f>MATCH(A53,[1]!db[NB PAJAK],0)+1</f>
-        <v>2032</v>
-      </c>
-      <c r="E53" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E53" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -62140,13 +62168,13 @@
       <c r="B54" s="92">
         <v>1</v>
       </c>
-      <c r="D54" s="92">
+      <c r="D54" s="92" t="e">
         <f>MATCH(A54,[1]!db[NB PAJAK],0)+1</f>
-        <v>1096</v>
-      </c>
-      <c r="E54" s="100" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E54" s="100" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>=&gt;</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -62156,11 +62184,11 @@
       <c r="B55" s="92"/>
       <c r="D55" s="92" t="e">
         <f>MATCH(A55,[1]!db[NB PAJAK],0)+1</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="E55" s="92" t="e">
         <f>HYPERLINK("[d:\kerja\BANK EXP\BARU\2022\DB.xlsx]DB!l"&amp;Table5[[#This Row],[Column1]],"=&gt;")</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">

--- a/BARU/2022/12 DES/keluar.xlsx
+++ b/BARU/2022/12 DES/keluar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="61" r:id="rId11"/>
+    <pivotCache cacheId="16" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1356,6 +1356,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1397,21 +1412,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21377,13 +21377,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>NO. INVOICE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="1">
           <cell r="B1" t="str">
@@ -44244,7 +44238,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44933.610103240739" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="96">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44946.418221064814" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="96">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
@@ -47213,7 +47207,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:A26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -47366,7 +47360,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
@@ -48090,7 +48084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
@@ -55465,7 +55459,7 @@
   <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60311,13 +60305,13 @@
       <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="103" t="str">
+      <c r="H3" s="108" t="str">
         <f>INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -60326,14 +60320,14 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="112" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -60342,20 +60336,20 @@
         <v>3</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="108">
+      <c r="D5" s="113">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
         <v>44923</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="107"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="110" t="str">
+      <c r="H5" s="115" t="str">
         <f>IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="111"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -60364,15 +60358,15 @@
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="107"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="112" t="str">
+      <c r="H6" s="117" t="str">
         <f>INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -60388,10 +60382,10 @@
       <c r="E7" s="9"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="120"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -61112,8 +61106,8 @@
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
       <c r="I28" s="65"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -61123,11 +61117,11 @@
       <c r="I29" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="118">
+      <c r="J29" s="104">
         <f>INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
         <v>2685780</v>
       </c>
-      <c r="K29" s="119"/>
+      <c r="K29" s="105"/>
       <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -61136,8 +61130,8 @@
       <c r="C30" s="66"/>
       <c r="D30" s="25"/>
       <c r="I30" s="68"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -61159,8 +61153,8 @@
       <c r="C32" s="66"/>
       <c r="D32" s="25"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -61175,11 +61169,11 @@
       <c r="I33" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="118">
+      <c r="J33" s="104">
         <f>INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
         <v>266158.37837837834</v>
       </c>
-      <c r="K33" s="119"/>
+      <c r="K33" s="105"/>
       <c r="L33" s="73"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -61188,8 +61182,8 @@
       <c r="C34" s="66"/>
       <c r="D34" s="25"/>
       <c r="I34" s="68"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
@@ -61230,11 +61224,11 @@
       <c r="I37" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="116" t="str">
+      <c r="J37" s="102" t="str">
         <f>INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI/ CONDRO</v>
       </c>
-      <c r="K37" s="117"/>
+      <c r="K37" s="103"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
@@ -61244,11 +61238,11 @@
       <c r="I38" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="116" t="str">
+      <c r="J38" s="102" t="str">
         <f>INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="117"/>
+      <c r="K38" s="103"/>
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -61263,6 +61257,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H3:K4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
@@ -61270,12 +61270,6 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61297,7 +61291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
